--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_1_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>887715.4499497754</v>
+        <v>885827.8684333736</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>351.4907066044592</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>129.8291426376367</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>172.7084989883154</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -859,25 +859,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>201.089163843681</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>27.37301815328992</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>211.182961130578</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>144.5184004270299</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>124.1699884042478</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>158.9544247659144</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>195.2026164713292</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>82.92375604299515</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>67.8311157984549</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>104.30014639936</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750033</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>57.5645290049876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532051</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1999,22 +1999,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>164.3675597136119</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>40.71096332175367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>150.5293463168577</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>9.621991078756793</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>131.5048101011659</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>143.4701497148033</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583893</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>169.7438101404418</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>43.97186549014338</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965526</v>
+        <v>93.4122163896553</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801207</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437419</v>
       </c>
       <c r="G31" t="n">
         <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>55.08921688933613</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571488</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523573</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3323,7 +3323,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1364.743608328862</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="C2" t="n">
-        <v>995.7810913884502</v>
+        <v>972.3318138408822</v>
       </c>
       <c r="D2" t="n">
-        <v>995.7810913884502</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E2" t="n">
-        <v>609.992838790206</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>603.0473380410025</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>185.0835299391894</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>185.0835299391894</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733128</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4367,13 +4367,13 @@
         <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X2" t="n">
-        <v>1364.743608328862</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y2" t="n">
-        <v>1364.743608328862</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="3">
@@ -4386,16 +4386,16 @@
         <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4407,25 +4407,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>525.0086166875648</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U4" t="n">
-        <v>525.0086166875648</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>525.0086166875648</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>975.540838419158</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="C5" t="n">
-        <v>606.5783214787464</v>
+        <v>1172.829108994408</v>
       </c>
       <c r="D5" t="n">
-        <v>606.5783214787464</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E5" t="n">
-        <v>220.7900688805021</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>213.8445681312987</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>199.9211640698896</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990286</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W5" t="n">
-        <v>2125.745768720171</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X5" t="n">
-        <v>1752.280010459091</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y5" t="n">
-        <v>1362.14067848328</v>
+        <v>1559.428949058529</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>602.704753495073</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1317.927233509</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.927233509</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D8" t="n">
-        <v>959.66153490225</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>959.66153490225</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1520.337903526926</v>
       </c>
       <c r="X8" t="n">
-        <v>1704.527073573122</v>
+        <v>1146.872145265846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1704.527073573122</v>
+        <v>1146.872145265846</v>
       </c>
     </row>
     <row r="9">
@@ -4857,73 +4857,73 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>404.9282174162495</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>659.6127056221363</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>659.6127056221363</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>404.9282174162495</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W10" t="n">
-        <v>404.9282174162495</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X10" t="n">
-        <v>404.9282174162495</v>
+        <v>137.7043515607636</v>
       </c>
       <c r="Y10" t="n">
-        <v>404.9282174162495</v>
+        <v>137.7043515607636</v>
       </c>
     </row>
     <row r="11">
@@ -5030,19 +5030,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>349.460722189873</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>349.460722189873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>349.460722189873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>349.460722189873</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>202.5707746919626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U13" t="n">
-        <v>1075.21084526296</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V13" t="n">
-        <v>820.5263570570733</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>531.1091870201127</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>531.1091870201127</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y13" t="n">
-        <v>531.1091870201127</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="14">
@@ -5258,34 +5258,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,7 +5294,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
         <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5437,49 +5437,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V16" t="n">
-        <v>1017.064856369034</v>
+        <v>531.3977182706316</v>
       </c>
       <c r="W16" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5498,40 +5498,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5598,22 +5598,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>627.7391298106763</v>
       </c>
       <c r="M18" t="n">
-        <v>1208.995055864554</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N18" t="n">
-        <v>1538.857683528586</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O18" t="n">
-        <v>2208.321444831246</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>879.2482765610116</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>710.3120936331047</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>560.195454220769</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383758</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5674,10 +5674,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471192</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1332.888432463345</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1043.759793676903</v>
       </c>
       <c r="V19" t="n">
-        <v>1168.665446597972</v>
+        <v>789.0753054710163</v>
       </c>
       <c r="W19" t="n">
-        <v>879.2482765610116</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="X19" t="n">
-        <v>879.2482765610116</v>
+        <v>499.6581354340558</v>
       </c>
       <c r="Y19" t="n">
-        <v>879.2482765610116</v>
+        <v>278.8655562905257</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5750,25 +5750,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>570.0299571250974</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>862.6633074373279</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
-        <v>710.6134626728253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>710.6134626728253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>562.7003690904322</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>415.8104215925218</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5938,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1298.996260473455</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>1044.311772267568</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W22" t="n">
-        <v>1044.311772267568</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X22" t="n">
-        <v>1044.311772267568</v>
+        <v>486.9458535317228</v>
       </c>
       <c r="Y22" t="n">
-        <v>1044.311772267568</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,52 +5987,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>865.4928396191511</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>696.5566566912443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>696.5566566912443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>548.6435631088511</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028584</v>
@@ -6151,7 +6151,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471192</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>1275.130855347408</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>1047.141304449391</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>1047.141304449391</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6218,13 +6218,13 @@
         <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
         <v>889.2841917514082</v>
@@ -6306,22 +6306,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>474.8900731662875</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q27" t="n">
         <v>2612.943493278838</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227919</v>
+        <v>786.0822064765184</v>
       </c>
       <c r="V28" t="n">
-        <v>620.242624916905</v>
+        <v>614.6238123952639</v>
       </c>
       <c r="W28" t="n">
-        <v>620.242624916905</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>392.2530740188876</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="Y28" t="n">
-        <v>392.2530740188876</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,10 +6464,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>880.8106280646855</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1188.130761344647</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
         <v>2317.834075963124</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.7342676598919</v>
+        <v>439.5324299542186</v>
       </c>
       <c r="C31" t="n">
-        <v>507.5589500133557</v>
+        <v>395.116404206599</v>
       </c>
       <c r="D31" t="n">
-        <v>413.2031758823908</v>
+        <v>300.7606300756341</v>
       </c>
       <c r="E31" t="n">
-        <v>321.0509475813686</v>
+        <v>300.7606300756341</v>
       </c>
       <c r="F31" t="n">
-        <v>321.0509475813686</v>
+        <v>209.6315478590945</v>
       </c>
       <c r="G31" t="n">
-        <v>208.6364911825597</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933504</v>
+        <v>369.0876362933502</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667512</v>
+        <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962055</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.62813016707</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894288</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386978</v>
+        <v>902.6804289818933</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220512</v>
+        <v>730.4517433652468</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598919</v>
+        <v>565.4200295030876</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
         <v>2612.943493278838</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229678</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506731</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083211</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504519</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6859,49 +6859,49 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.686330625496</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116389</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
         <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045214</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,28 +6926,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6956,31 +6956,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>261.8048459311029</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>410.8745301331628</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,10 +7096,10 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7251,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315608</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7600,7 +7600,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
         <v>1304.027639859416</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,7 +7637,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7649,7 +7649,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7801,16 +7801,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9015,19 +9015,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>104.8749102765749</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,25 +9246,25 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>94.13752431970596</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>124.3400780863231</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>159.0121003135246</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863231</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>28.12263706262996</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>62.91120742583783</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>223.6742649934478</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>286.5092576192341</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>124.3400780863227</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>414.5002179180839</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>285.1031356539327</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,16 +11151,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23425,10 +23425,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>62.1934220640176</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>82.39383318338592</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>194.5731143188404</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.39383318338588</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,22 +23887,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23941,13 +23941,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>57.18000134477734</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>211.4266800020743</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>16.71747478177014</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>216.0876643102804</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>13.91623792176538</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24412,19 +24412,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>36.36183046713401</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>82.39383318338615</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>68.07169897992739</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801211</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437415</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>38.62135484964308</v>
+        <v>93.71057173897907</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571492</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523569</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1004253.040296589</v>
+        <v>1004253.04029659</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1004253.040296589</v>
+        <v>1004253.04029659</v>
       </c>
     </row>
     <row r="9">
@@ -26314,13 +26314,13 @@
         <v>389994.8406855344</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855345</v>
       </c>
       <c r="E2" t="n">
-        <v>371477.6067508236</v>
+        <v>371477.6067508237</v>
       </c>
       <c r="F2" t="n">
         <v>371477.6067508236</v>
@@ -26329,10 +26329,10 @@
         <v>371477.6067508236</v>
       </c>
       <c r="H2" t="n">
+        <v>371477.6067508236</v>
+      </c>
+      <c r="I2" t="n">
         <v>371477.6067508237</v>
-      </c>
-      <c r="I2" t="n">
-        <v>371477.6067508236</v>
       </c>
       <c r="J2" t="n">
         <v>371477.6067508236</v>
@@ -26344,7 +26344,7 @@
         <v>389994.8406855348</v>
       </c>
       <c r="M2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855349</v>
       </c>
       <c r="N2" t="n">
         <v>389994.8406855346</v>
@@ -26353,7 +26353,7 @@
         <v>389994.8406855348</v>
       </c>
       <c r="P2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284568</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086685</v>
+        <v>10342.90680086688</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284569</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
         <v>147917.0487159208</v>
@@ -26427,34 +26427,34 @@
         <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
+        <v>7916.731656007497</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007505</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007497</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>7916.731656007485</v>
       </c>
-      <c r="H4" t="n">
-        <v>7916.731656007492</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007497</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="K4" t="n">
-        <v>26081.35417020403</v>
+        <v>26081.35417020402</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732794</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732793</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
         <v>30335.51889732797</v>
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26479,19 +26479,19 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,7 +26500,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-430749.1653083405</v>
+        <v>-430749.1653083403</v>
       </c>
       <c r="C6" t="n">
-        <v>159218.7139062041</v>
+        <v>159218.7139062042</v>
       </c>
       <c r="D6" t="n">
         <v>159218.7139062042</v>
       </c>
       <c r="E6" t="n">
-        <v>-253586.4873307967</v>
+        <v>-253683.9464567687</v>
       </c>
       <c r="F6" t="n">
-        <v>271573.5491460995</v>
+        <v>271476.0900201273</v>
       </c>
       <c r="G6" t="n">
-        <v>271573.5491460995</v>
+        <v>271476.0900201272</v>
       </c>
       <c r="H6" t="n">
-        <v>271573.5491460996</v>
+        <v>271476.0900201274</v>
       </c>
       <c r="I6" t="n">
-        <v>271573.5491460995</v>
+        <v>271476.0900201274</v>
       </c>
       <c r="J6" t="n">
-        <v>95150.3299535065</v>
+        <v>95052.87082753432</v>
       </c>
       <c r="K6" t="n">
-        <v>219608.8624747343</v>
+        <v>219590.3687367999</v>
       </c>
       <c r="L6" t="n">
         <v>251601.3091673146</v>
       </c>
       <c r="M6" t="n">
-        <v>127143.2007343443</v>
+        <v>127143.2007343444</v>
       </c>
       <c r="N6" t="n">
         <v>261944.2159681813</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964062</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26747,13 +26747,13 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108357</v>
+        <v>12.9286335010836</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855711</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>31.24313505902137</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>22.10217360722459</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.694822225952521e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,25 +27579,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>23.94594161440332</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>258.9088560886878</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>143.5000804901049</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>179.4043723373273</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>19.66077927292511</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>162.1118858377299</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>247.921620975797</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>154.0383522460838</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>96.90822413894215</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>157.2039896596294</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="C31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="D31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="E31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="F31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="G31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="H31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="J31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="K31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="L31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="M31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="N31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="O31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="P31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="R31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="S31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="T31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="U31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="V31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="W31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="X31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.2032566285571</v>
+        <v>55.20325662855706</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,22 +31221,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34696,25 +34696,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>387.238612517683</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>343.3952292757303</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>331.4334930178478</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>309.5875389014639</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178478</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>338.5470141130963</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>10.73738595686865</v>
@@ -36592,10 +36592,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
@@ -36674,10 +36674,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>213.4866460137771</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,10 +36689,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>10.73738595686865</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36768,7 +36768,7 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
         <v>39.22569997187476</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>472.9319699494721</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412263</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584676</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -37005,10 +37005,10 @@
         <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043186</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>568.8729598603422</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
         <v>10.73738595686865</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>166.2502570412294</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37397,16 +37397,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>747.6947913160968</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37786,7 +37786,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>534.360840609957</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38017,10 +38017,10 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221117</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,16 +38108,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
